--- a/MP_ANOVA.xlsx
+++ b/MP_ANOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/DWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FD316A-BC52-4FFF-A117-E047BE00AA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EE32BB1E-817E-4B43-9EEA-D964B43FE27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A9C13D84-8226-45E0-A5FF-27DB16341285}"/>
   </bookViews>
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E19"/>
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,6 +1495,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -1509,6 +1512,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -1523,6 +1529,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1537,6 +1546,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1551,6 +1563,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1565,6 +1580,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1579,6 +1597,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1593,6 +1614,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1607,6 +1631,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1621,6 +1648,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1635,6 +1665,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1649,6 +1682,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -1663,6 +1699,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1677,6 +1716,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1691,6 +1733,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1704,7 +1749,10 @@
         <v>-0.60738000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1766,10 @@
         <v>0.90909099999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1783,10 @@
         <v>1.428571</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>

--- a/MP_ANOVA.xlsx
+++ b/MP_ANOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/DWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EE32BB1E-817E-4B43-9EEA-D964B43FE27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B212EED1-EF08-4F4E-B3B3-EE39F7D8FB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A9C13D84-8226-45E0-A5FF-27DB16341285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9C13D84-8226-45E0-A5FF-27DB16341285}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="14">
   <si>
     <t>Replicates</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>RE</t>
   </si>
   <si>
     <t>MP</t>
@@ -82,6 +79,9 @@
   <si>
     <t>MP_PFOA_PFOS</t>
   </si>
+  <si>
+    <t>Removal</t>
+  </si>
 </sst>
 </file>
 
@@ -96,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,9 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -457,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A2483-952F-4E06-ACAA-DF790268D3B1}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>-0.48014000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,84 +511,84 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1.134876</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1.2658229999999999</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>0.21929799999999999</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>-1.05263</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>8.7719000000000005E-2</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>-1.7605599999999999</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0.88028200000000001</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,16 +630,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>0.440141</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,16 +647,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0.26052999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,136 +664,80 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>-0.6079</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>1.3026489999999999</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>1.6228070000000001</v>
+      <c r="E14" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
-        <v>-1.18421</v>
+      <c r="E15" s="1">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0.17543900000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0.73475900000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1.37931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>2.8448280000000001</v>
-      </c>
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -796,7 +749,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E8" activeCellId="1" sqref="E3 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2.0443669999999998</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,16 +793,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0.86994300000000002</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,16 +810,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1.478904</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>-0.34788999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,16 +844,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1.5224009999999999</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,16 +861,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0.82644600000000001</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>-1.4096900000000001</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,16 +895,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0.35242299999999999</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,16 +912,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>4.4053000000000002E-2</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>0.65502199999999999</v>
+      <c r="E11" s="1">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,136 +946,108 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
-        <v>1.528384</v>
+      <c r="E12" s="1">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>1.0917030000000001</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>2.852204</v>
+      <c r="E14" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
-        <v>2.765774</v>
+      <c r="E15" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
-        <v>-0.43214999999999998</v>
+      <c r="E16" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>1.9827589999999999</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1.508621</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>2.1551719999999999</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38C5D5F-E5B1-4DA9-8B17-29449077B3F6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E12" activeCellId="1" sqref="E10 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,313 +1078,296 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>4.3610999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0.91583099999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0.56694299999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>0.56917700000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1.4886159999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0.56842999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0.87450799999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>0.74333199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0.47930299999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>0.39215699999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>-0.82789000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>1.9413290000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0.25884400000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>1.571366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1.134876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>8.7298000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1469,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E95A55D-8761-40CD-892F-0042687E9CDC}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,313 +1399,296 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0.74463400000000002</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1.752081</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0.65703</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>0.61269099999999999</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>-0.17505000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0.48139999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0.74138700000000002</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0.218055</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>-0.56694</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>0.130833</v>
+      <c r="E11" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
-        <v>0.82860900000000004</v>
+      <c r="E12" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" s="1">
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>-0.43611</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
+      <c r="A14" s="1">
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>0.56399100000000002</v>
+      <c r="E14" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
+      <c r="A15" s="1">
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
-        <v>0.69414299999999995</v>
+      <c r="E15" s="2">
+        <v>-26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
+      <c r="A16" s="1">
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
-        <v>-0.60738000000000003</v>
+      <c r="E16" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
+      <c r="A17" s="1">
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0.90909099999999998</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
+      <c r="A18" s="1">
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1.428571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>1.212121</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/MP_ANOVA.xlsx
+++ b/MP_ANOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/DWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B212EED1-EF08-4F4E-B3B3-EE39F7D8FB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{13946076-2B2C-4540-AC5B-9B5FFEAAFC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9C13D84-8226-45E0-A5FF-27DB16341285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A9C13D84-8226-45E0-A5FF-27DB16341285}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="14">
   <si>
     <t>Replicates</t>
   </si>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A2483-952F-4E06-ACAA-DF790268D3B1}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -621,30 +621,30 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
-        <v>-54</v>
+      <c r="E9" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -656,29 +656,29 @@
         <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
-        <v>20</v>
+      <c r="E12" s="2">
+        <v>-4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -689,13 +689,13 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2">
-        <v>-4</v>
+      <c r="E13" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -707,25 +707,12 @@
         <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>94</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -749,7 +736,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="E3 E8"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,8 +873,8 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
-        <v>-16</v>
+      <c r="E8" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,29 +891,29 @@
         <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -938,29 +925,29 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -972,29 +959,29 @@
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1006,12 +993,12 @@
         <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1023,30 +1010,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
@@ -1059,7 +1029,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" activeCellId="1" sqref="E10 E12"/>
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1201,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>-84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2">
-        <v>-72</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1377,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E95A55D-8761-40CD-892F-0042687E9CDC}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,24 +1459,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-20</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1517,13 +1487,13 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>28</v>
+      <c r="E8" s="2">
+        <v>-8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1534,30 +1504,30 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
-        <v>-8</v>
+      <c r="E9" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1569,29 +1539,29 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1603,46 +1573,46 @@
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
-        <v>-26</v>
+      <c r="E15" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1654,40 +1624,6 @@
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
         <v>56</v>
       </c>
     </row>
